--- a/results_G2/min_results_per_frame.xlsx
+++ b/results_G2/min_results_per_frame.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="2333" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2372" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2397" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2381" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2223" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2343" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2343" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2372" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2334" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2230" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2515" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2280" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,13 +458,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="n">
-        <v>5.383437633514404</v>
+        <v>2.703729629516602</v>
       </c>
     </row>
     <row r="3">
@@ -471,197 +472,197 @@
         <v>98</v>
       </c>
       <c r="B3" t="n">
-        <v>901</v>
+        <v>1101</v>
       </c>
       <c r="C3" t="n">
-        <v>2.685463666915894</v>
+        <v>2.652007341384888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>902</v>
+        <v>1102</v>
       </c>
       <c r="C4" t="n">
-        <v>2.808071613311768</v>
+        <v>2.845518827438354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1114</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
-        <v>903</v>
+        <v>1103</v>
       </c>
       <c r="C5" t="n">
-        <v>4.508433818817139</v>
+        <v>2.692139148712158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B6" t="n">
-        <v>904</v>
+        <v>1104</v>
       </c>
       <c r="C6" t="n">
-        <v>5.550867080688477</v>
+        <v>2.789500713348389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
-        <v>905</v>
+        <v>1105</v>
       </c>
       <c r="C7" t="n">
-        <v>5.510837554931641</v>
+        <v>2.730173587799072</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B8" t="n">
-        <v>906</v>
+        <v>1106</v>
       </c>
       <c r="C8" t="n">
-        <v>2.684413909912109</v>
+        <v>2.677264213562012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B9" t="n">
-        <v>907</v>
+        <v>1107</v>
       </c>
       <c r="C9" t="n">
-        <v>2.672308444976807</v>
+        <v>2.635049819946289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1082</v>
+        <v>98</v>
       </c>
       <c r="B10" t="n">
-        <v>908</v>
+        <v>1108</v>
       </c>
       <c r="C10" t="n">
-        <v>3.501383543014526</v>
+        <v>2.666540384292603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1082</v>
+        <v>98</v>
       </c>
       <c r="B11" t="n">
-        <v>909</v>
+        <v>1109</v>
       </c>
       <c r="C11" t="n">
-        <v>2.790934324264526</v>
+        <v>2.669468879699707</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1082</v>
+        <v>130</v>
       </c>
       <c r="B12" t="n">
-        <v>910</v>
+        <v>1110</v>
       </c>
       <c r="C12" t="n">
-        <v>2.647916316986084</v>
+        <v>2.585399866104126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1082</v>
+        <v>98</v>
       </c>
       <c r="B13" t="n">
-        <v>911</v>
+        <v>1111</v>
       </c>
       <c r="C13" t="n">
-        <v>2.634658336639404</v>
+        <v>2.698229551315308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1082</v>
+        <v>98</v>
       </c>
       <c r="B14" t="n">
-        <v>912</v>
+        <v>1112</v>
       </c>
       <c r="C14" t="n">
-        <v>2.598343133926392</v>
+        <v>2.6597900390625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1082</v>
+        <v>98</v>
       </c>
       <c r="B15" t="n">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.547468185424805</v>
+        <v>2.580803155899048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>786</v>
+      </c>
+      <c r="B16" t="n">
         <v>1114</v>
       </c>
-      <c r="B16" t="n">
-        <v>914</v>
-      </c>
       <c r="C16" t="n">
-        <v>5.018566608428955</v>
+        <v>5.855629920959473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98</v>
+        <v>786</v>
       </c>
       <c r="B17" t="n">
-        <v>915</v>
+        <v>1115</v>
       </c>
       <c r="C17" t="n">
-        <v>5.434210777282715</v>
+        <v>8.721903800964355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
-        <v>916</v>
+        <v>1116</v>
       </c>
       <c r="C18" t="n">
-        <v>2.779086589813232</v>
+        <v>5.052262783050537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B19" t="n">
-        <v>917</v>
+        <v>1117</v>
       </c>
       <c r="C19" t="n">
-        <v>3.881508350372314</v>
+        <v>2.815367221832275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B20" t="n">
-        <v>918</v>
+        <v>1118</v>
       </c>
       <c r="C20" t="n">
-        <v>2.949112415313721</v>
+        <v>2.636257886886597</v>
       </c>
     </row>
     <row r="21">
@@ -669,76 +670,78 @@
         <v>130</v>
       </c>
       <c r="B21" t="n">
-        <v>919</v>
+        <v>1119</v>
       </c>
       <c r="C21" t="n">
-        <v>3.921273946762085</v>
+        <v>2.586018085479736</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B22" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="C22" t="n">
-        <v>2.854079961776733</v>
+        <v>2.743078231811523</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1114</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>921</v>
+        <v>1121</v>
       </c>
       <c r="C23" t="n">
-        <v>6.687266826629639</v>
+        <v>5.617090404033661</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1114</v>
+        <v>426</v>
       </c>
       <c r="B24" t="n">
-        <v>922</v>
+        <v>1122</v>
       </c>
       <c r="C24" t="n">
-        <v>5.050753116607666</v>
+        <v>2.596116781234741</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="B25" t="n">
-        <v>923</v>
+        <v>1123</v>
       </c>
       <c r="C25" t="n">
-        <v>5.649188995361328</v>
+        <v>2.720040082931519</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B26" t="n">
-        <v>924</v>
+        <v>1124</v>
       </c>
       <c r="C26" t="n">
-        <v>5.176239490509033</v>
+        <v>2.604394674301147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1114</v>
+        <v>458</v>
       </c>
       <c r="B27" t="n">
-        <v>925</v>
+        <v>1125</v>
       </c>
       <c r="C27" t="n">
-        <v>5.380880355834961</v>
+        <v>2.660952806472778</v>
       </c>
     </row>
     <row r="28">
@@ -746,254 +749,260 @@
         <v>458</v>
       </c>
       <c r="B28" t="n">
-        <v>926</v>
+        <v>1126</v>
       </c>
       <c r="C28" t="n">
-        <v>3.824585914611816</v>
+        <v>2.829776287078857</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1082</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>927</v>
+        <v>1127</v>
       </c>
       <c r="C29" t="n">
-        <v>2.683082580566406</v>
+        <v>5.153307318687439</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1082</v>
+        <v>1114</v>
       </c>
       <c r="B30" t="n">
-        <v>928</v>
+        <v>1128</v>
       </c>
       <c r="C30" t="n">
-        <v>2.657192230224609</v>
+        <v>5.416523456573486</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1082</v>
+        <v>130</v>
       </c>
       <c r="B31" t="n">
-        <v>929</v>
+        <v>1129</v>
       </c>
       <c r="C31" t="n">
-        <v>2.617638349533081</v>
+        <v>2.83781099319458</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1114</v>
+        <v>130</v>
       </c>
       <c r="B32" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="C32" t="n">
-        <v>2.58267068862915</v>
+        <v>4.886478900909424</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1114</v>
+        <v>754</v>
       </c>
       <c r="B33" t="n">
-        <v>931</v>
+        <v>1131</v>
       </c>
       <c r="C33" t="n">
-        <v>4.273660659790039</v>
+        <v>2.70425271987915</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1082</v>
+        <v>754</v>
       </c>
       <c r="B34" t="n">
-        <v>932</v>
+        <v>1132</v>
       </c>
       <c r="C34" t="n">
-        <v>2.749631881713867</v>
+        <v>2.716508388519287</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1082</v>
+        <v>754</v>
       </c>
       <c r="B35" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="C35" t="n">
-        <v>2.899429321289062</v>
+        <v>2.647110939025879</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1082</v>
+        <v>754</v>
       </c>
       <c r="B36" t="n">
-        <v>934</v>
+        <v>1134</v>
       </c>
       <c r="C36" t="n">
-        <v>2.781691312789917</v>
+        <v>2.875248670578003</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1114</v>
+        <v>754</v>
       </c>
       <c r="B37" t="n">
-        <v>935</v>
+        <v>1135</v>
       </c>
       <c r="C37" t="n">
-        <v>2.749915838241577</v>
+        <v>2.716112852096558</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1082</v>
+        <v>754</v>
       </c>
       <c r="B38" t="n">
-        <v>936</v>
+        <v>1136</v>
       </c>
       <c r="C38" t="n">
-        <v>2.744065046310425</v>
+        <v>2.680368423461914</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1082</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>937</v>
+        <v>1137</v>
       </c>
       <c r="C39" t="n">
-        <v>2.733928203582764</v>
+        <v>3.671257555484772</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1114</v>
+        <v>130</v>
       </c>
       <c r="B40" t="n">
-        <v>938</v>
+        <v>1138</v>
       </c>
       <c r="C40" t="n">
-        <v>2.510694742202759</v>
+        <v>5.420927047729492</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1114</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B41" t="n">
-        <v>939</v>
+        <v>1139</v>
       </c>
       <c r="C41" t="n">
-        <v>2.749999523162842</v>
+        <v>5.489288091659546</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1082</v>
+        <v>130</v>
       </c>
       <c r="B42" t="n">
-        <v>940</v>
+        <v>1140</v>
       </c>
       <c r="C42" t="n">
-        <v>2.65161919593811</v>
+        <v>5.180619239807129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1082</v>
+        <v>130</v>
       </c>
       <c r="B43" t="n">
-        <v>941</v>
+        <v>1141</v>
       </c>
       <c r="C43" t="n">
-        <v>3.392229318618774</v>
+        <v>4.457727432250977</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1082</v>
+        <v>98</v>
       </c>
       <c r="B44" t="n">
-        <v>942</v>
+        <v>1142</v>
       </c>
       <c r="C44" t="n">
-        <v>2.629404544830322</v>
+        <v>4.168273448944092</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="B45" t="n">
-        <v>943</v>
+        <v>1143</v>
       </c>
       <c r="C45" t="n">
-        <v>4.978311061859131</v>
+        <v>2.740505456924438</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B46" t="n">
-        <v>944</v>
+        <v>1144</v>
       </c>
       <c r="C46" t="n">
-        <v>7.408883094787598</v>
+        <v>3.013313770294189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B47" t="n">
-        <v>945</v>
+        <v>1145</v>
       </c>
       <c r="C47" t="n">
-        <v>4.365108013153076</v>
+        <v>4.146178245544434</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B48" t="n">
-        <v>946</v>
+        <v>1146</v>
       </c>
       <c r="C48" t="n">
-        <v>4.620572566986084</v>
+        <v>3.922176837921143</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>98</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1147</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.354162693023682</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>947</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.742761671543121</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>426</v>
-      </c>
       <c r="B50" t="n">
-        <v>948</v>
+        <v>1148</v>
       </c>
       <c r="C50" t="n">
-        <v>2.546910762786865</v>
+        <v>5.729384779930115</v>
       </c>
     </row>
     <row r="51">
@@ -1001,144 +1010,142 @@
         <v>1114</v>
       </c>
       <c r="B51" t="n">
-        <v>949</v>
+        <v>1149</v>
       </c>
       <c r="C51" t="n">
-        <v>4.452207088470459</v>
+        <v>5.15229320526123</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>754</v>
+        <v>1082</v>
       </c>
       <c r="B52" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="C52" t="n">
-        <v>2.836189270019531</v>
+        <v>2.866779088973999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>754</v>
+        <v>1082</v>
       </c>
       <c r="B53" t="n">
-        <v>951</v>
+        <v>1151</v>
       </c>
       <c r="C53" t="n">
-        <v>2.785987615585327</v>
+        <v>2.659260272979736</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>754</v>
+        <v>1082</v>
       </c>
       <c r="B54" t="n">
-        <v>952</v>
+        <v>1152</v>
       </c>
       <c r="C54" t="n">
-        <v>2.799086570739746</v>
+        <v>2.713492393493652</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B55" t="n">
-        <v>953</v>
+        <v>1153</v>
       </c>
       <c r="C55" t="n">
-        <v>5.697708606719971</v>
+        <v>2.598778486251831</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130</v>
+        <v>1082</v>
       </c>
       <c r="B56" t="n">
-        <v>954</v>
+        <v>1154</v>
       </c>
       <c r="C56" t="n">
-        <v>4.648571968078613</v>
+        <v>2.507692575454712</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B57" t="n">
-        <v>955</v>
+        <v>1155</v>
       </c>
       <c r="C57" t="n">
-        <v>5.475061416625977</v>
+        <v>2.576587915420532</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130</v>
+        <v>1082</v>
       </c>
       <c r="B58" t="n">
-        <v>956</v>
+        <v>1156</v>
       </c>
       <c r="C58" t="n">
-        <v>2.724295139312744</v>
+        <v>2.504875183105469</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A59" t="n">
+        <v>1082</v>
       </c>
       <c r="B59" t="n">
-        <v>957</v>
+        <v>1157</v>
       </c>
       <c r="C59" t="n">
-        <v>5.031367421150208</v>
+        <v>3.188383340835571</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B60" t="n">
-        <v>958</v>
+        <v>1158</v>
       </c>
       <c r="C60" t="n">
-        <v>2.571276426315308</v>
+        <v>2.85892128944397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B61" t="n">
-        <v>959</v>
+        <v>1159</v>
       </c>
       <c r="C61" t="n">
-        <v>3.879564523696899</v>
+        <v>2.609814405441284</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B62" t="n">
-        <v>960</v>
+        <v>1160</v>
       </c>
       <c r="C62" t="n">
-        <v>2.588515281677246</v>
+        <v>2.678221702575684</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="B63" t="n">
-        <v>961</v>
+        <v>1161</v>
       </c>
       <c r="C63" t="n">
-        <v>2.651539087295532</v>
+        <v>2.934534311294556</v>
       </c>
     </row>
     <row r="64">
@@ -1146,403 +1153,395 @@
         <v>458</v>
       </c>
       <c r="B64" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="C64" t="n">
-        <v>3.247131824493408</v>
+        <v>4.195292949676514</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A65" t="n">
+        <v>458</v>
       </c>
       <c r="B65" t="n">
-        <v>963</v>
+        <v>1163</v>
       </c>
       <c r="C65" t="n">
-        <v>4.341855585575104</v>
+        <v>2.615108966827393</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B66" t="n">
-        <v>964</v>
+        <v>1164</v>
       </c>
       <c r="C66" t="n">
-        <v>2.816502332687378</v>
+        <v>2.863681793212891</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>754</v>
+        <v>1082</v>
       </c>
       <c r="B67" t="n">
-        <v>965</v>
+        <v>1165</v>
       </c>
       <c r="C67" t="n">
-        <v>2.511856555938721</v>
+        <v>2.613044500350952</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>754</v>
+        <v>458</v>
       </c>
       <c r="B68" t="n">
-        <v>966</v>
+        <v>1166</v>
       </c>
       <c r="C68" t="n">
-        <v>2.848038673400879</v>
+        <v>2.812797546386719</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>754</v>
+        <v>1082</v>
       </c>
       <c r="B69" t="n">
-        <v>967</v>
+        <v>1167</v>
       </c>
       <c r="C69" t="n">
-        <v>2.786902666091919</v>
+        <v>2.818658590316772</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>754</v>
+        <v>1082</v>
       </c>
       <c r="B70" t="n">
-        <v>968</v>
+        <v>1168</v>
       </c>
       <c r="C70" t="n">
-        <v>2.704629898071289</v>
+        <v>2.756111860275269</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>130</v>
+        <v>1082</v>
       </c>
       <c r="B71" t="n">
-        <v>969</v>
+        <v>1169</v>
       </c>
       <c r="C71" t="n">
-        <v>2.635934114456177</v>
+        <v>2.949139356613159</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A72" t="n">
+        <v>426</v>
       </c>
       <c r="B72" t="n">
-        <v>970</v>
+        <v>1170</v>
       </c>
       <c r="C72" t="n">
-        <v>4.35572075843811</v>
+        <v>4.509846210479736</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B73" t="n">
-        <v>971</v>
+        <v>1171</v>
       </c>
       <c r="C73" t="n">
-        <v>5.795983791351318</v>
+        <v>3.375890016555786</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B74" t="n">
-        <v>972</v>
+        <v>1172</v>
       </c>
       <c r="C74" t="n">
-        <v>5.491583824157715</v>
+        <v>5.208489894866943</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B75" t="n">
-        <v>973</v>
+        <v>1173</v>
       </c>
       <c r="C75" t="n">
-        <v>4.270201683044434</v>
+        <v>2.568900108337402</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A76" t="n">
+        <v>754</v>
       </c>
       <c r="B76" t="n">
-        <v>974</v>
+        <v>1174</v>
       </c>
       <c r="C76" t="n">
-        <v>5.305846333503723</v>
+        <v>2.828029155731201</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A77" t="n">
+        <v>754</v>
       </c>
       <c r="B77" t="n">
-        <v>975</v>
+        <v>1175</v>
       </c>
       <c r="C77" t="n">
-        <v>6.305423736572266</v>
+        <v>2.683963537216187</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B78" t="n">
-        <v>976</v>
+        <v>1176</v>
       </c>
       <c r="C78" t="n">
-        <v>5.506701469421387</v>
+        <v>2.546817302703857</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B79" t="n">
-        <v>977</v>
+        <v>1177</v>
       </c>
       <c r="C79" t="n">
-        <v>5.019547939300537</v>
+        <v>2.541967153549194</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B80" t="n">
-        <v>978</v>
+        <v>1178</v>
       </c>
       <c r="C80" t="n">
-        <v>4.130542755126953</v>
+        <v>2.714781522750854</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B81" t="n">
-        <v>979</v>
+        <v>1179</v>
       </c>
       <c r="C81" t="n">
-        <v>4.043747901916504</v>
+        <v>2.648004293441772</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B82" t="n">
-        <v>980</v>
+        <v>1180</v>
       </c>
       <c r="C82" t="n">
-        <v>3.935451507568359</v>
+        <v>2.625020980834961</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B83" t="n">
-        <v>981</v>
+        <v>1181</v>
       </c>
       <c r="C83" t="n">
-        <v>5.217999458312988</v>
+        <v>2.497095584869385</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B84" t="n">
-        <v>982</v>
+        <v>1182</v>
       </c>
       <c r="C84" t="n">
-        <v>3.995090961456299</v>
+        <v>2.726467609405518</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B85" t="n">
-        <v>983</v>
+        <v>1183</v>
       </c>
       <c r="C85" t="n">
-        <v>2.81843113899231</v>
+        <v>2.600361108779907</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B86" t="n">
-        <v>984</v>
+        <v>1184</v>
       </c>
       <c r="C86" t="n">
-        <v>2.824938535690308</v>
+        <v>2.712131261825562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B87" t="n">
-        <v>985</v>
+        <v>1185</v>
       </c>
       <c r="C87" t="n">
-        <v>2.683748483657837</v>
+        <v>2.802921772003174</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B88" t="n">
-        <v>986</v>
+        <v>1186</v>
       </c>
       <c r="C88" t="n">
-        <v>4.439388751983643</v>
+        <v>2.828418970108032</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B89" t="n">
-        <v>987</v>
+        <v>1187</v>
       </c>
       <c r="C89" t="n">
-        <v>3.541728734970093</v>
+        <v>2.77585768699646</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B90" t="n">
-        <v>988</v>
+        <v>1188</v>
       </c>
       <c r="C90" t="n">
-        <v>2.685287714004517</v>
+        <v>5.920079231262207</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1114</v>
+        <v>754</v>
       </c>
       <c r="B91" t="n">
-        <v>989</v>
+        <v>1189</v>
       </c>
       <c r="C91" t="n">
-        <v>5.405490398406982</v>
+        <v>2.640816926956177</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B92" t="n">
-        <v>990</v>
+        <v>1190</v>
       </c>
       <c r="C92" t="n">
-        <v>5.185398578643799</v>
+        <v>2.68856143951416</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B93" t="n">
-        <v>991</v>
+        <v>1191</v>
       </c>
       <c r="C93" t="n">
-        <v>2.698993921279907</v>
+        <v>5.808138847351074</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B94" t="n">
-        <v>992</v>
+        <v>1192</v>
       </c>
       <c r="C94" t="n">
-        <v>2.63256049156189</v>
+        <v>2.485308170318604</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B95" t="n">
-        <v>993</v>
+        <v>1193</v>
       </c>
       <c r="C95" t="n">
-        <v>2.792683124542236</v>
+        <v>2.821971893310547</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B96" t="n">
-        <v>994</v>
+        <v>1194</v>
       </c>
       <c r="C96" t="n">
-        <v>5.158712387084961</v>
+        <v>2.811441659927368</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B97" t="n">
-        <v>995</v>
+        <v>1195</v>
       </c>
       <c r="C97" t="n">
-        <v>5.547458648681641</v>
+        <v>2.632305145263672</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B98" t="n">
-        <v>996</v>
+        <v>1196</v>
       </c>
       <c r="C98" t="n">
-        <v>5.96946382522583</v>
+        <v>2.43572998046875</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B99" t="n">
-        <v>997</v>
+        <v>1197</v>
       </c>
       <c r="C99" t="n">
-        <v>4.547695159912109</v>
+        <v>2.511061668395996</v>
       </c>
     </row>
     <row r="100">
@@ -1550,10 +1549,10 @@
         <v>754</v>
       </c>
       <c r="B100" t="n">
-        <v>998</v>
+        <v>1198</v>
       </c>
       <c r="C100" t="n">
-        <v>6.577008724212646</v>
+        <v>2.729167938232422</v>
       </c>
     </row>
     <row r="101">
@@ -1561,10 +1560,561 @@
         <v>754</v>
       </c>
       <c r="B101" t="n">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="C101" t="n">
-        <v>4.75317907333374</v>
+        <v>2.766306161880493</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.790876746177673</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.63703978061676</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>786</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.495097637176514</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>754</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.608269453048706</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>754</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.887068271636963</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>754</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.551656246185303</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>754</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1206</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.835963487625122</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>754</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.56513237953186</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>786</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.012166023254395</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.190109133720398</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>754</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.777865886688232</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>130</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.997838020324707</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>98</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.573138952255249</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>98</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.719419717788696</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>98</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.714041709899902</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>130</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.86719274520874</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>130</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.863694906234741</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>130</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.69555139541626</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>130</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.659470081329346</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>98</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.547183275222778</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>130</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.685017108917236</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>98</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.581229448318481</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>98</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.461133003234863</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>130</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.879247426986694</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>98</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.54803204536438</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>130</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.649658203125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>98</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.669004440307617</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>786</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.17116641998291</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.367189407348633</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>98</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.597088098526001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>98</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.591791391372681</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>98</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.618372440338135</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>98</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.860248804092407</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>98</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.688193321228027</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>98</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.633236169815063</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>130</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.08314847946167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.779626250267029</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>786</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.389542579650879</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>458</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.245771884918213</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>786</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.859766483306885</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.377732694149017</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>458</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.399635791778564</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>130</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.774796962738037</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>458</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1243</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.391464233398438</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C146" t="n">
+        <v>14.79979610443115</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.71518349647522</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>130</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.153614521026611</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>786</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.048985958099365</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>754</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.705824851989746</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,193 +2155,189 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>754</v>
+        <v>426</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="n">
-        <v>3.505730867385864</v>
+        <v>2.490386486053467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>754</v>
+        <v>426</v>
       </c>
       <c r="B3" t="n">
-        <v>901</v>
+        <v>1101</v>
       </c>
       <c r="C3" t="n">
-        <v>3.253196239471436</v>
+        <v>2.877415418624878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>754</v>
+        <v>426</v>
       </c>
       <c r="B4" t="n">
-        <v>902</v>
+        <v>1102</v>
       </c>
       <c r="C4" t="n">
-        <v>2.549802541732788</v>
+        <v>2.604246377944946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>754</v>
+        <v>426</v>
       </c>
       <c r="B5" t="n">
-        <v>903</v>
+        <v>1103</v>
       </c>
       <c r="C5" t="n">
-        <v>4.17584228515625</v>
+        <v>2.631311178207397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B6" t="n">
-        <v>904</v>
+        <v>1104</v>
       </c>
       <c r="C6" t="n">
-        <v>6.555117607116699</v>
+        <v>2.665420055389404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="B7" t="n">
-        <v>905</v>
+        <v>1105</v>
       </c>
       <c r="C7" t="n">
-        <v>2.71704363822937</v>
+        <v>2.859887361526489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>786</v>
+        <v>426</v>
       </c>
       <c r="B8" t="n">
-        <v>906</v>
+        <v>1106</v>
       </c>
       <c r="C8" t="n">
-        <v>5.291101932525635</v>
+        <v>2.559544086456299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B9" t="n">
-        <v>907</v>
+        <v>1107</v>
       </c>
       <c r="C9" t="n">
-        <v>4.39455509185791</v>
+        <v>3.662676811218262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B10" t="n">
-        <v>908</v>
+        <v>1108</v>
       </c>
       <c r="C10" t="n">
-        <v>2.715500593185425</v>
+        <v>3.988179683685303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98</v>
+        <v>1114</v>
       </c>
       <c r="B11" t="n">
-        <v>909</v>
+        <v>1109</v>
       </c>
       <c r="C11" t="n">
-        <v>3.203498125076294</v>
+        <v>3.804229497909546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B12" t="n">
-        <v>910</v>
+        <v>1110</v>
       </c>
       <c r="C12" t="n">
-        <v>3.211757659912109</v>
+        <v>2.940828084945679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B13" t="n">
-        <v>911</v>
+        <v>1111</v>
       </c>
       <c r="C13" t="n">
-        <v>2.849016427993774</v>
+        <v>5.57475757598877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B14" t="n">
-        <v>912</v>
+        <v>1112</v>
       </c>
       <c r="C14" t="n">
-        <v>2.700495719909668</v>
+        <v>2.637650012969971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B15" t="n">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.619920969009399</v>
+        <v>2.624404907226562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B16" t="n">
-        <v>914</v>
+        <v>1114</v>
       </c>
       <c r="C16" t="n">
-        <v>2.603019952774048</v>
+        <v>2.591027736663818</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A17" t="n">
+        <v>426</v>
       </c>
       <c r="B17" t="n">
-        <v>915</v>
+        <v>1115</v>
       </c>
       <c r="C17" t="n">
-        <v>3.979856610298157</v>
+        <v>2.568377017974854</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A18" t="n">
+        <v>458</v>
       </c>
       <c r="B18" t="n">
-        <v>916</v>
+        <v>1116</v>
       </c>
       <c r="C18" t="n">
-        <v>3.813986659049988</v>
+        <v>2.78348708152771</v>
       </c>
     </row>
     <row r="19">
@@ -1799,120 +2345,122 @@
         <v>458</v>
       </c>
       <c r="B19" t="n">
-        <v>917</v>
+        <v>1117</v>
       </c>
       <c r="C19" t="n">
-        <v>4.941507339477539</v>
+        <v>2.713001251220703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="B20" t="n">
-        <v>918</v>
+        <v>1118</v>
       </c>
       <c r="C20" t="n">
-        <v>4.437892913818359</v>
+        <v>4.641116142272949</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>786</v>
+        <v>426</v>
       </c>
       <c r="B21" t="n">
-        <v>919</v>
+        <v>1119</v>
       </c>
       <c r="C21" t="n">
-        <v>2.891976594924927</v>
+        <v>2.649115562438965</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>754</v>
+        <v>426</v>
       </c>
       <c r="B22" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="C22" t="n">
-        <v>2.772083282470703</v>
+        <v>2.649900436401367</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>786</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>921</v>
+        <v>1121</v>
       </c>
       <c r="C23" t="n">
-        <v>5.018359184265137</v>
+        <v>4.827714443206787</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B24" t="n">
-        <v>922</v>
+        <v>1122</v>
       </c>
       <c r="C24" t="n">
-        <v>2.525403499603271</v>
+        <v>3.553557395935059</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1114</v>
+        <v>130</v>
       </c>
       <c r="B25" t="n">
-        <v>923</v>
+        <v>1123</v>
       </c>
       <c r="C25" t="n">
-        <v>4.947884082794189</v>
+        <v>3.817336797714233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B26" t="n">
-        <v>924</v>
+        <v>1124</v>
       </c>
       <c r="C26" t="n">
-        <v>4.738314628601074</v>
+        <v>4.173819541931152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="B27" t="n">
-        <v>925</v>
+        <v>1125</v>
       </c>
       <c r="C27" t="n">
-        <v>3.458163022994995</v>
+        <v>2.576227426528931</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B28" t="n">
-        <v>926</v>
+        <v>1126</v>
       </c>
       <c r="C28" t="n">
-        <v>2.636321067810059</v>
+        <v>5.84439754486084</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B29" t="n">
-        <v>927</v>
+        <v>1127</v>
       </c>
       <c r="C29" t="n">
-        <v>2.918742656707764</v>
+        <v>5.107162475585938</v>
       </c>
     </row>
     <row r="30">
@@ -1920,489 +2468,487 @@
         <v>98</v>
       </c>
       <c r="B30" t="n">
-        <v>928</v>
+        <v>1128</v>
       </c>
       <c r="C30" t="n">
-        <v>2.73967432975769</v>
+        <v>2.494125604629517</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B31" t="n">
-        <v>929</v>
+        <v>1129</v>
       </c>
       <c r="C31" t="n">
-        <v>2.518272638320923</v>
+        <v>3.532645463943481</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>98</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="C32" t="n">
-        <v>2.649197340011597</v>
+        <v>4.512770056724548</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B33" t="n">
-        <v>931</v>
+        <v>1131</v>
       </c>
       <c r="C33" t="n">
-        <v>3.350163221359253</v>
+        <v>5.250833034515381</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>98</v>
+        <v>1114</v>
       </c>
       <c r="B34" t="n">
-        <v>932</v>
+        <v>1132</v>
       </c>
       <c r="C34" t="n">
-        <v>2.609559297561646</v>
+        <v>4.690715789794922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B35" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="C35" t="n">
-        <v>3.014090061187744</v>
+        <v>2.761581182479858</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B36" t="n">
-        <v>934</v>
+        <v>1134</v>
       </c>
       <c r="C36" t="n">
-        <v>3.964879035949707</v>
+        <v>2.779352903366089</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B37" t="n">
-        <v>935</v>
+        <v>1135</v>
       </c>
       <c r="C37" t="n">
-        <v>4.674557685852051</v>
+        <v>2.704238176345825</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B38" t="n">
-        <v>936</v>
+        <v>1136</v>
       </c>
       <c r="C38" t="n">
-        <v>4.023984909057617</v>
+        <v>2.628638029098511</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130</v>
+        <v>1082</v>
       </c>
       <c r="B39" t="n">
-        <v>937</v>
+        <v>1137</v>
       </c>
       <c r="C39" t="n">
-        <v>3.776639461517334</v>
+        <v>2.746994972229004</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>458</v>
+        <v>1082</v>
       </c>
       <c r="B40" t="n">
-        <v>938</v>
+        <v>1138</v>
       </c>
       <c r="C40" t="n">
-        <v>10.2009220123291</v>
+        <v>2.745695114135742</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="B41" t="n">
-        <v>939</v>
+        <v>1139</v>
       </c>
       <c r="C41" t="n">
-        <v>7.89475154876709</v>
+        <v>3.713565826416016</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="B42" t="n">
-        <v>940</v>
+        <v>1140</v>
       </c>
       <c r="C42" t="n">
-        <v>8.16498851776123</v>
+        <v>4.53562593460083</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130</v>
+        <v>1082</v>
       </c>
       <c r="B43" t="n">
-        <v>941</v>
+        <v>1141</v>
       </c>
       <c r="C43" t="n">
-        <v>3.558153629302979</v>
+        <v>2.5324866771698</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B44" t="n">
-        <v>942</v>
+        <v>1142</v>
       </c>
       <c r="C44" t="n">
-        <v>2.548597574234009</v>
+        <v>2.666117191314697</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B45" t="n">
-        <v>943</v>
+        <v>1143</v>
       </c>
       <c r="C45" t="n">
-        <v>5.081953048706055</v>
+        <v>2.787195444107056</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B46" t="n">
-        <v>944</v>
+        <v>1144</v>
       </c>
       <c r="C46" t="n">
-        <v>4.302213668823242</v>
+        <v>2.506704330444336</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B47" t="n">
-        <v>945</v>
+        <v>1145</v>
       </c>
       <c r="C47" t="n">
-        <v>4.171229839324951</v>
+        <v>3.050643920898438</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B48" t="n">
-        <v>946</v>
+        <v>1146</v>
       </c>
       <c r="C48" t="n">
-        <v>5.012716293334961</v>
+        <v>2.896721363067627</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B49" t="n">
-        <v>947</v>
+        <v>1147</v>
       </c>
       <c r="C49" t="n">
-        <v>2.584266901016235</v>
+        <v>2.750242233276367</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B50" t="n">
-        <v>948</v>
+        <v>1148</v>
       </c>
       <c r="C50" t="n">
-        <v>4.290377140045166</v>
+        <v>2.866200923919678</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B51" t="n">
-        <v>949</v>
+        <v>1149</v>
       </c>
       <c r="C51" t="n">
-        <v>4.332393169403076</v>
+        <v>2.582760810852051</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B52" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="C52" t="n">
-        <v>6.266888618469238</v>
+        <v>2.660194158554077</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B53" t="n">
-        <v>951</v>
+        <v>1151</v>
       </c>
       <c r="C53" t="n">
-        <v>4.89597225189209</v>
+        <v>7.617351055145264</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>426</v>
+        <v>786</v>
       </c>
       <c r="B54" t="n">
-        <v>952</v>
+        <v>1152</v>
       </c>
       <c r="C54" t="n">
-        <v>5.06315803527832</v>
+        <v>7.265872478485107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>426</v>
+        <v>786</v>
       </c>
       <c r="B55" t="n">
-        <v>953</v>
+        <v>1153</v>
       </c>
       <c r="C55" t="n">
-        <v>3.891537666320801</v>
+        <v>2.767851591110229</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="B56" t="n">
-        <v>954</v>
+        <v>1154</v>
       </c>
       <c r="C56" t="n">
-        <v>4.504548072814941</v>
+        <v>3.627395391464233</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>458</v>
+        <v>1114</v>
       </c>
       <c r="B57" t="n">
-        <v>955</v>
+        <v>1155</v>
       </c>
       <c r="C57" t="n">
-        <v>4.31818675994873</v>
+        <v>4.382041454315186</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B58" t="n">
-        <v>956</v>
+        <v>1156</v>
       </c>
       <c r="C58" t="n">
-        <v>2.656959533691406</v>
+        <v>4.591501712799072</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B59" t="n">
-        <v>957</v>
+        <v>1157</v>
       </c>
       <c r="C59" t="n">
-        <v>5.671594142913818</v>
+        <v>4.869105339050293</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B60" t="n">
-        <v>958</v>
+        <v>1158</v>
       </c>
       <c r="C60" t="n">
-        <v>5.00518798828125</v>
+        <v>3.440711498260498</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A61" t="n">
+        <v>130</v>
       </c>
       <c r="B61" t="n">
-        <v>959</v>
+        <v>1159</v>
       </c>
       <c r="C61" t="n">
-        <v>4.652817070484161</v>
+        <v>4.297161102294922</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B62" t="n">
-        <v>960</v>
+        <v>1160</v>
       </c>
       <c r="C62" t="n">
-        <v>3.982547283172607</v>
+        <v>3.495069980621338</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B63" t="n">
-        <v>961</v>
+        <v>1161</v>
       </c>
       <c r="C63" t="n">
-        <v>4.098101615905762</v>
+        <v>4.812436580657959</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="C64" t="n">
-        <v>2.775240898132324</v>
+        <v>5.54826831817627</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B65" t="n">
-        <v>963</v>
+        <v>1163</v>
       </c>
       <c r="C65" t="n">
-        <v>2.673010587692261</v>
+        <v>5.191243648529053</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="B66" t="n">
-        <v>964</v>
+        <v>1164</v>
       </c>
       <c r="C66" t="n">
-        <v>2.676501274108887</v>
+        <v>4.794691562652588</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B67" t="n">
-        <v>965</v>
+        <v>1165</v>
       </c>
       <c r="C67" t="n">
-        <v>2.807442903518677</v>
+        <v>5.376296520233154</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>426</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B68" t="n">
-        <v>966</v>
+        <v>1166</v>
       </c>
       <c r="C68" t="n">
-        <v>2.554944515228271</v>
+        <v>5.858773112297058</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A69" t="n">
+        <v>754</v>
       </c>
       <c r="B69" t="n">
-        <v>967</v>
+        <v>1167</v>
       </c>
       <c r="C69" t="n">
-        <v>3.313989102840424</v>
+        <v>2.530605316162109</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A70" t="n">
+        <v>754</v>
       </c>
       <c r="B70" t="n">
-        <v>968</v>
+        <v>1168</v>
       </c>
       <c r="C70" t="n">
-        <v>4.6164430975914</v>
+        <v>2.427469968795776</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B71" t="n">
-        <v>969</v>
+        <v>1169</v>
       </c>
       <c r="C71" t="n">
-        <v>4.503633499145508</v>
+        <v>2.720123291015625</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B72" t="n">
-        <v>970</v>
+        <v>1170</v>
       </c>
       <c r="C72" t="n">
-        <v>2.796003341674805</v>
+        <v>2.754975318908691</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B73" t="n">
-        <v>971</v>
+        <v>1171</v>
       </c>
       <c r="C73" t="n">
-        <v>3.090564727783203</v>
+        <v>2.852419376373291</v>
       </c>
     </row>
     <row r="74">
@@ -2410,10 +2956,10 @@
         <v>98</v>
       </c>
       <c r="B74" t="n">
-        <v>972</v>
+        <v>1172</v>
       </c>
       <c r="C74" t="n">
-        <v>4.51749324798584</v>
+        <v>2.673798084259033</v>
       </c>
     </row>
     <row r="75">
@@ -2421,43 +2967,43 @@
         <v>98</v>
       </c>
       <c r="B75" t="n">
-        <v>973</v>
+        <v>1173</v>
       </c>
       <c r="C75" t="n">
-        <v>4.119429588317871</v>
+        <v>2.479316711425781</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B76" t="n">
-        <v>974</v>
+        <v>1174</v>
       </c>
       <c r="C76" t="n">
-        <v>2.687322378158569</v>
+        <v>4.877407073974609</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B77" t="n">
-        <v>975</v>
+        <v>1175</v>
       </c>
       <c r="C77" t="n">
-        <v>5.107589244842529</v>
+        <v>3.815511226654053</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B78" t="n">
-        <v>976</v>
+        <v>1176</v>
       </c>
       <c r="C78" t="n">
-        <v>2.838490724563599</v>
+        <v>10.29876613616943</v>
       </c>
     </row>
     <row r="79">
@@ -2465,252 +3011,113 @@
         <v>458</v>
       </c>
       <c r="B79" t="n">
-        <v>977</v>
+        <v>1177</v>
       </c>
       <c r="C79" t="n">
-        <v>4.934789657592773</v>
+        <v>6.792471885681152</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B80" t="n">
-        <v>978</v>
+        <v>1178</v>
       </c>
       <c r="C80" t="n">
-        <v>3.895536422729492</v>
+        <v>2.757098197937012</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B81" t="n">
-        <v>979</v>
+        <v>1179</v>
       </c>
       <c r="C81" t="n">
-        <v>4.267813682556152</v>
+        <v>6.949114322662354</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="B82" t="n">
-        <v>980</v>
+        <v>1180</v>
       </c>
       <c r="C82" t="n">
-        <v>4.20530891418457</v>
+        <v>5.250769138336182</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B83" t="n">
-        <v>981</v>
+        <v>1181</v>
       </c>
       <c r="C83" t="n">
-        <v>4.412474632263184</v>
+        <v>2.775316953659058</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B84" t="n">
-        <v>982</v>
+        <v>1182</v>
       </c>
       <c r="C84" t="n">
-        <v>4.311937808990479</v>
+        <v>2.665121555328369</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>426</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B85" t="n">
-        <v>983</v>
+        <v>1183</v>
       </c>
       <c r="C85" t="n">
-        <v>4.755255699157715</v>
+        <v>5.287303924560547</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>426</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B86" t="n">
-        <v>984</v>
+        <v>1184</v>
       </c>
       <c r="C86" t="n">
-        <v>2.661621809005737</v>
+        <v>3.928577899932861</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>458</v>
+        <v>1114</v>
       </c>
       <c r="B87" t="n">
-        <v>985</v>
+        <v>1185</v>
       </c>
       <c r="C87" t="n">
-        <v>3.655437707901001</v>
+        <v>4.68082332611084</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="B88" t="n">
-        <v>986</v>
+        <v>1186</v>
       </c>
       <c r="C88" t="n">
-        <v>2.870490550994873</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B89" t="n">
-        <v>987</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2.775432825088501</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>754</v>
-      </c>
-      <c r="B90" t="n">
-        <v>988</v>
-      </c>
-      <c r="C90" t="n">
-        <v>4.867009162902832</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>130</v>
-      </c>
-      <c r="B91" t="n">
-        <v>989</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4.468954563140869</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>754</v>
-      </c>
-      <c r="B92" t="n">
-        <v>990</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.821754455566406</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>130</v>
-      </c>
-      <c r="B93" t="n">
-        <v>991</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.582774877548218</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>786</v>
-      </c>
-      <c r="B94" t="n">
-        <v>992</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.894192934036255</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>130</v>
-      </c>
-      <c r="B95" t="n">
-        <v>993</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4.551759243011475</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>786</v>
-      </c>
-      <c r="B96" t="n">
-        <v>994</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.07814884185791</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B97" t="n">
-        <v>995</v>
-      </c>
-      <c r="C97" t="n">
-        <v>4.838149547576904</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>458</v>
-      </c>
-      <c r="B98" t="n">
-        <v>996</v>
-      </c>
-      <c r="C98" t="n">
-        <v>4.612411499023438</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B99" t="n">
-        <v>997</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.717090845108032</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B100" t="n">
-        <v>998</v>
-      </c>
-      <c r="C100" t="n">
-        <v>4.453832149505615</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>458</v>
-      </c>
-      <c r="B101" t="n">
-        <v>999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.787965059280396</v>
+        <v>5.128213882446289</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2751,13 +3158,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1114</v>
+        <v>458</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="n">
-        <v>2.829254865646362</v>
+        <v>4.429263591766357</v>
       </c>
     </row>
     <row r="3">
@@ -2765,32 +3172,32 @@
         <v>458</v>
       </c>
       <c r="B3" t="n">
-        <v>901</v>
+        <v>1101</v>
       </c>
       <c r="C3" t="n">
-        <v>3.108850479125977</v>
+        <v>3.035584688186646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>786</v>
+        <v>1114</v>
       </c>
       <c r="B4" t="n">
-        <v>902</v>
+        <v>1102</v>
       </c>
       <c r="C4" t="n">
-        <v>2.633914232254028</v>
+        <v>3.219049215316772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>786</v>
+        <v>1114</v>
       </c>
       <c r="B5" t="n">
-        <v>903</v>
+        <v>1103</v>
       </c>
       <c r="C5" t="n">
-        <v>4.760434627532959</v>
+        <v>5.504911422729492</v>
       </c>
     </row>
     <row r="6">
@@ -2798,21 +3205,21 @@
         <v>786</v>
       </c>
       <c r="B6" t="n">
-        <v>904</v>
+        <v>1104</v>
       </c>
       <c r="C6" t="n">
-        <v>4.121173858642578</v>
+        <v>5.192927360534668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B7" t="n">
-        <v>905</v>
+        <v>1105</v>
       </c>
       <c r="C7" t="n">
-        <v>4.786337375640869</v>
+        <v>2.750695943832397</v>
       </c>
     </row>
     <row r="8">
@@ -2820,10 +3227,10 @@
         <v>786</v>
       </c>
       <c r="B8" t="n">
-        <v>906</v>
+        <v>1106</v>
       </c>
       <c r="C8" t="n">
-        <v>3.419291496276855</v>
+        <v>4.33511209487915</v>
       </c>
     </row>
     <row r="9">
@@ -2831,34 +3238,32 @@
         <v>786</v>
       </c>
       <c r="B9" t="n">
-        <v>907</v>
+        <v>1107</v>
       </c>
       <c r="C9" t="n">
-        <v>2.619874954223633</v>
+        <v>3.443145751953125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B10" t="n">
-        <v>908</v>
+        <v>1108</v>
       </c>
       <c r="C10" t="n">
-        <v>5.719966411590576</v>
+        <v>2.555242300033569</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A11" t="n">
+        <v>754</v>
       </c>
       <c r="B11" t="n">
-        <v>909</v>
+        <v>1109</v>
       </c>
       <c r="C11" t="n">
-        <v>4.412607550621033</v>
+        <v>2.638565063476562</v>
       </c>
     </row>
     <row r="12">
@@ -2866,122 +3271,120 @@
         <v>754</v>
       </c>
       <c r="B12" t="n">
-        <v>910</v>
+        <v>1110</v>
       </c>
       <c r="C12" t="n">
-        <v>3.669474840164185</v>
+        <v>2.66572117805481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>754</v>
+        <v>130</v>
       </c>
       <c r="B13" t="n">
-        <v>911</v>
+        <v>1111</v>
       </c>
       <c r="C13" t="n">
-        <v>3.071588516235352</v>
+        <v>5.053542613983154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="B14" t="n">
-        <v>912</v>
+        <v>1112</v>
       </c>
       <c r="C14" t="n">
-        <v>3.770339250564575</v>
+        <v>2.84022331237793</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="B15" t="n">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="C15" t="n">
-        <v>4.731461524963379</v>
+        <v>3.910877704620361</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B16" t="n">
-        <v>914</v>
+        <v>1114</v>
       </c>
       <c r="C16" t="n">
-        <v>3.542227983474731</v>
+        <v>2.841222524642944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B17" t="n">
-        <v>915</v>
+        <v>1115</v>
       </c>
       <c r="C17" t="n">
-        <v>3.049494981765747</v>
+        <v>2.655534744262695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>426</v>
+        <v>754</v>
       </c>
       <c r="B18" t="n">
-        <v>916</v>
+        <v>1116</v>
       </c>
       <c r="C18" t="n">
-        <v>2.756060123443604</v>
+        <v>2.649807453155518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B19" t="n">
-        <v>917</v>
+        <v>1117</v>
       </c>
       <c r="C19" t="n">
-        <v>3.056228160858154</v>
+        <v>2.684470653533936</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1082</v>
+        <v>754</v>
       </c>
       <c r="B20" t="n">
-        <v>918</v>
+        <v>1118</v>
       </c>
       <c r="C20" t="n">
-        <v>4.532186031341553</v>
+        <v>2.907871723175049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1114</v>
+        <v>754</v>
       </c>
       <c r="B21" t="n">
-        <v>919</v>
+        <v>1119</v>
       </c>
       <c r="C21" t="n">
-        <v>5.46726655960083</v>
+        <v>2.662132501602173</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A22" t="n">
+        <v>754</v>
       </c>
       <c r="B22" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="C22" t="n">
-        <v>4.937575340270996</v>
+        <v>2.623854875564575</v>
       </c>
     </row>
     <row r="23">
@@ -2989,10 +3392,10 @@
         <v>754</v>
       </c>
       <c r="B23" t="n">
-        <v>921</v>
+        <v>1121</v>
       </c>
       <c r="C23" t="n">
-        <v>2.832594633102417</v>
+        <v>2.706136465072632</v>
       </c>
     </row>
     <row r="24">
@@ -3000,10 +3403,10 @@
         <v>754</v>
       </c>
       <c r="B24" t="n">
-        <v>922</v>
+        <v>1122</v>
       </c>
       <c r="C24" t="n">
-        <v>2.76269006729126</v>
+        <v>2.60320782661438</v>
       </c>
     </row>
     <row r="25">
@@ -3011,10 +3414,10 @@
         <v>786</v>
       </c>
       <c r="B25" t="n">
-        <v>923</v>
+        <v>1123</v>
       </c>
       <c r="C25" t="n">
-        <v>5.224876403808594</v>
+        <v>4.674276351928711</v>
       </c>
     </row>
     <row r="26">
@@ -3022,21 +3425,23 @@
         <v>786</v>
       </c>
       <c r="B26" t="n">
-        <v>924</v>
+        <v>1124</v>
       </c>
       <c r="C26" t="n">
-        <v>3.026340246200562</v>
+        <v>4.653570652008057</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>786</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>925</v>
+        <v>1125</v>
       </c>
       <c r="C27" t="n">
-        <v>5.459847450256348</v>
+        <v>5.812551915645599</v>
       </c>
     </row>
     <row r="28">
@@ -3044,45 +3449,43 @@
         <v>754</v>
       </c>
       <c r="B28" t="n">
-        <v>926</v>
+        <v>1126</v>
       </c>
       <c r="C28" t="n">
-        <v>3.799076318740845</v>
+        <v>2.60417366027832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B29" t="n">
-        <v>927</v>
+        <v>1127</v>
       </c>
       <c r="C29" t="n">
-        <v>3.234606504440308</v>
+        <v>2.651575088500977</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B30" t="n">
-        <v>928</v>
+        <v>1128</v>
       </c>
       <c r="C30" t="n">
-        <v>3.789329528808594</v>
+        <v>2.570149660110474</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A31" t="n">
+        <v>786</v>
       </c>
       <c r="B31" t="n">
-        <v>929</v>
+        <v>1129</v>
       </c>
       <c r="C31" t="n">
-        <v>3.836115837097168</v>
+        <v>4.781583786010742</v>
       </c>
     </row>
     <row r="32">
@@ -3090,32 +3493,32 @@
         <v>754</v>
       </c>
       <c r="B32" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="C32" t="n">
-        <v>4.242996215820312</v>
+        <v>2.873728036880493</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>754</v>
+        <v>1114</v>
       </c>
       <c r="B33" t="n">
-        <v>931</v>
+        <v>1131</v>
       </c>
       <c r="C33" t="n">
-        <v>2.715484857559204</v>
+        <v>5.463923931121826</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>754</v>
+        <v>98</v>
       </c>
       <c r="B34" t="n">
-        <v>932</v>
+        <v>1132</v>
       </c>
       <c r="C34" t="n">
-        <v>2.650832653045654</v>
+        <v>2.530469655990601</v>
       </c>
     </row>
     <row r="35">
@@ -3123,32 +3526,32 @@
         <v>130</v>
       </c>
       <c r="B35" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="C35" t="n">
-        <v>3.598851203918457</v>
+        <v>2.934986114501953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>98</v>
+        <v>1114</v>
       </c>
       <c r="B36" t="n">
-        <v>934</v>
+        <v>1134</v>
       </c>
       <c r="C36" t="n">
-        <v>4.510734081268311</v>
+        <v>4.56052827835083</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B37" t="n">
-        <v>935</v>
+        <v>1135</v>
       </c>
       <c r="C37" t="n">
-        <v>4.681044101715088</v>
+        <v>4.595083236694336</v>
       </c>
     </row>
     <row r="38">
@@ -3156,32 +3559,32 @@
         <v>98</v>
       </c>
       <c r="B38" t="n">
-        <v>936</v>
+        <v>1136</v>
       </c>
       <c r="C38" t="n">
-        <v>2.660699605941772</v>
+        <v>5.392159938812256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B39" t="n">
-        <v>937</v>
+        <v>1137</v>
       </c>
       <c r="C39" t="n">
-        <v>2.665562629699707</v>
+        <v>5.219414710998535</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B40" t="n">
-        <v>938</v>
+        <v>1138</v>
       </c>
       <c r="C40" t="n">
-        <v>2.784140586853027</v>
+        <v>3.24080228805542</v>
       </c>
     </row>
     <row r="41">
@@ -3189,10 +3592,10 @@
         <v>98</v>
       </c>
       <c r="B41" t="n">
-        <v>939</v>
+        <v>1139</v>
       </c>
       <c r="C41" t="n">
-        <v>2.754884719848633</v>
+        <v>4.42622184753418</v>
       </c>
     </row>
     <row r="42">
@@ -3200,23 +3603,21 @@
         <v>98</v>
       </c>
       <c r="B42" t="n">
-        <v>940</v>
+        <v>1140</v>
       </c>
       <c r="C42" t="n">
-        <v>2.577434301376343</v>
+        <v>4.554978370666504</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A43" t="n">
+        <v>754</v>
       </c>
       <c r="B43" t="n">
-        <v>941</v>
+        <v>1141</v>
       </c>
       <c r="C43" t="n">
-        <v>3.225418329238892</v>
+        <v>3.640777587890625</v>
       </c>
     </row>
     <row r="44">
@@ -3224,43 +3625,43 @@
         <v>754</v>
       </c>
       <c r="B44" t="n">
-        <v>942</v>
+        <v>1142</v>
       </c>
       <c r="C44" t="n">
-        <v>5.537858963012695</v>
+        <v>2.7013258934021</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="B45" t="n">
-        <v>943</v>
+        <v>1143</v>
       </c>
       <c r="C45" t="n">
-        <v>2.623165607452393</v>
+        <v>2.671238899230957</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>754</v>
+        <v>130</v>
       </c>
       <c r="B46" t="n">
-        <v>944</v>
+        <v>1144</v>
       </c>
       <c r="C46" t="n">
-        <v>2.59883189201355</v>
+        <v>4.987842082977295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>754</v>
+        <v>130</v>
       </c>
       <c r="B47" t="n">
-        <v>945</v>
+        <v>1145</v>
       </c>
       <c r="C47" t="n">
-        <v>3.124497890472412</v>
+        <v>4.929781913757324</v>
       </c>
     </row>
     <row r="48">
@@ -3268,54 +3669,54 @@
         <v>754</v>
       </c>
       <c r="B48" t="n">
-        <v>946</v>
+        <v>1146</v>
       </c>
       <c r="C48" t="n">
-        <v>3.07816743850708</v>
+        <v>2.531216621398926</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B49" t="n">
-        <v>947</v>
+        <v>1147</v>
       </c>
       <c r="C49" t="n">
-        <v>5.485471248626709</v>
+        <v>2.593708276748657</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B50" t="n">
-        <v>948</v>
+        <v>1148</v>
       </c>
       <c r="C50" t="n">
-        <v>4.548981189727783</v>
+        <v>3.07477068901062</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>426</v>
+        <v>754</v>
       </c>
       <c r="B51" t="n">
-        <v>949</v>
+        <v>1149</v>
       </c>
       <c r="C51" t="n">
-        <v>4.576030731201172</v>
+        <v>2.795938014984131</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B52" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="C52" t="n">
-        <v>3.948538780212402</v>
+        <v>2.679212808609009</v>
       </c>
     </row>
     <row r="53">
@@ -3323,201 +3724,201 @@
         <v>130</v>
       </c>
       <c r="B53" t="n">
-        <v>951</v>
+        <v>1151</v>
       </c>
       <c r="C53" t="n">
-        <v>5.107762813568115</v>
+        <v>3.562044620513916</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>1114</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B54" t="n">
-        <v>952</v>
+        <v>1152</v>
       </c>
       <c r="C54" t="n">
-        <v>4.225757122039795</v>
+        <v>3.955278873443604</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>1114</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B55" t="n">
-        <v>953</v>
+        <v>1153</v>
       </c>
       <c r="C55" t="n">
-        <v>3.821238994598389</v>
+        <v>4.27088326215744</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A56" t="n">
+        <v>426</v>
       </c>
       <c r="B56" t="n">
-        <v>954</v>
+        <v>1154</v>
       </c>
       <c r="C56" t="n">
-        <v>3.950883328914642</v>
+        <v>3.891843557357788</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A57" t="n">
+        <v>426</v>
       </c>
       <c r="B57" t="n">
-        <v>955</v>
+        <v>1155</v>
       </c>
       <c r="C57" t="n">
-        <v>3.73749178647995</v>
+        <v>3.18721604347229</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>786</v>
+        <v>426</v>
       </c>
       <c r="B58" t="n">
-        <v>956</v>
+        <v>1156</v>
       </c>
       <c r="C58" t="n">
-        <v>4.523719787597656</v>
+        <v>3.903714656829834</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="B59" t="n">
-        <v>957</v>
+        <v>1157</v>
       </c>
       <c r="C59" t="n">
-        <v>3.182544231414795</v>
+        <v>5.915411949157715</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="B60" t="n">
-        <v>958</v>
+        <v>1158</v>
       </c>
       <c r="C60" t="n">
-        <v>2.840235233306885</v>
+        <v>4.826617240905762</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="B61" t="n">
-        <v>959</v>
+        <v>1159</v>
       </c>
       <c r="C61" t="n">
-        <v>10.13095855712891</v>
+        <v>2.686943054199219</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B62" t="n">
-        <v>960</v>
+        <v>1160</v>
       </c>
       <c r="C62" t="n">
-        <v>3.887080907821655</v>
+        <v>2.524765253067017</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B63" t="n">
-        <v>961</v>
+        <v>1161</v>
       </c>
       <c r="C63" t="n">
-        <v>5.468225479125977</v>
+        <v>2.602947473526001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B64" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="C64" t="n">
-        <v>2.564264059066772</v>
+        <v>2.564178943634033</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B65" t="n">
-        <v>963</v>
+        <v>1163</v>
       </c>
       <c r="C65" t="n">
-        <v>2.882362127304077</v>
+        <v>2.739705085754395</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1114</v>
+        <v>786</v>
       </c>
       <c r="B66" t="n">
-        <v>964</v>
+        <v>1164</v>
       </c>
       <c r="C66" t="n">
-        <v>5.282914161682129</v>
+        <v>2.681408643722534</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>98</v>
+        <v>786</v>
       </c>
       <c r="B67" t="n">
-        <v>965</v>
+        <v>1165</v>
       </c>
       <c r="C67" t="n">
-        <v>2.518537521362305</v>
+        <v>3.872066259384155</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B68" t="n">
-        <v>966</v>
+        <v>1166</v>
       </c>
       <c r="C68" t="n">
-        <v>3.791423559188843</v>
+        <v>2.819786787033081</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B69" t="n">
-        <v>967</v>
+        <v>1167</v>
       </c>
       <c r="C69" t="n">
-        <v>3.135180473327637</v>
+        <v>2.568813800811768</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B70" t="n">
-        <v>968</v>
+        <v>1168</v>
       </c>
       <c r="C70" t="n">
-        <v>4.841958999633789</v>
+        <v>4.26960563659668</v>
       </c>
     </row>
     <row r="71">
@@ -3525,10 +3926,915 @@
         <v>130</v>
       </c>
       <c r="B71" t="n">
-        <v>969</v>
+        <v>1169</v>
       </c>
       <c r="C71" t="n">
-        <v>5.539332389831543</v>
+        <v>5.715146064758301</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>458</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.187367677688599</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>426</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1171</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.604400396347046</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>426</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1172</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.919169425964355</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>426</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.974490165710449</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>458</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C76" t="n">
+        <v>16.99478721618652</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.109348297119141</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>98</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.607057809829712</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>98</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.675263166427612</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>98</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.674511194229126</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>98</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.532713890075684</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>130</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.364014148712158</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.184352517127991</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.077548384666443</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>786</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.716254234313965</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>130</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.860185861587524</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>98</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.554776430130005</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>98</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.430851936340332</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>98</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.60877251625061</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>130</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.617632150650024</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.600790500640869</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>98</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.649327993392944</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>98</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.535039663314819</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>130</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.617074012756348</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>98</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.56118106842041</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>98</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.553556442260742</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>98</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.524731397628784</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.66915225982666</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.689531564712524</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.629120111465454</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>130</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.742457866668701</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>98</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.797582626342773</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>98</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.89651346206665</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>98</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.685794830322266</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>130</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.929124355316162</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>98</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.553231239318848</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>98</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.533395528793335</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>98</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1206</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.796464204788208</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>130</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.787229776382446</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>98</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.506999731063843</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>130</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.028410911560059</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.224989652633667</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.346557140350342</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.57465648651123</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>458</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.09433650970459</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>426</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.69738245010376</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>426</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.749600648880005</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>426</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.85302209854126</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>754</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.274118423461914</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.195633292198181</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.190244495868683</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.86219334602356</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3.789486110210419</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.729021310806274</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.810406923294067</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3.660982847213745</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>426</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.2933030128479</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.409895896911621</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.040085315704346</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>786</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.751452922821045</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.969126224517822</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>458</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.692923069000244</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.881227493286133</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3.816821873188019</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>458</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.984632015228271</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.088886499404907</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.046128153800964</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>130</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.873433589935303</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>458</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.595146656036377</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.179971814155579</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.676999151706696</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.079254567623138</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.489193499088287</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>426</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.120884656906128</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>426</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1243</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.540836572647095</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>426</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.760713815689087</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>786</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.780913352966309</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>130</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.272430419921875</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.570963978767395</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3.781319618225098</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +4848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3569,83 +4875,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B2" t="n">
-        <v>939</v>
+        <v>1171</v>
       </c>
       <c r="C2" t="n">
-        <v>5.724345207214355</v>
+        <v>3.118136644363403</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1082</v>
       </c>
       <c r="B3" t="n">
-        <v>940</v>
+        <v>1172</v>
       </c>
       <c r="C3" t="n">
-        <v>4.341023802757263</v>
+        <v>2.80706000328064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B4" t="n">
-        <v>941</v>
+        <v>1173</v>
       </c>
       <c r="C4" t="n">
-        <v>4.878772258758545</v>
+        <v>2.51861834526062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B5" t="n">
-        <v>942</v>
+        <v>1174</v>
       </c>
       <c r="C5" t="n">
-        <v>2.74065899848938</v>
+        <v>2.636830806732178</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1082</v>
       </c>
       <c r="B6" t="n">
-        <v>943</v>
+        <v>1175</v>
       </c>
       <c r="C6" t="n">
-        <v>3.619978606700897</v>
+        <v>2.741371154785156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>458</v>
+        <v>1082</v>
       </c>
       <c r="B7" t="n">
-        <v>944</v>
+        <v>1176</v>
       </c>
       <c r="C7" t="n">
-        <v>4.971437931060791</v>
+        <v>2.625893115997314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>458</v>
+        <v>1082</v>
       </c>
       <c r="B8" t="n">
-        <v>945</v>
+        <v>1177</v>
       </c>
       <c r="C8" t="n">
-        <v>2.735792398452759</v>
+        <v>2.562382698059082</v>
       </c>
     </row>
     <row r="9">
@@ -3653,10 +4955,796 @@
         <v>1082</v>
       </c>
       <c r="B9" t="n">
-        <v>946</v>
+        <v>1178</v>
       </c>
       <c r="C9" t="n">
-        <v>3.14313793182373</v>
+        <v>2.714033603668213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.717257976531982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.808656215667725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.701206207275391</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.710724353790283</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.622322797775269</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.693154096603394</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.609668016433716</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.764961719512939</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.532103300094604</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.564935445785522</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.344281673431396</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.691814661026001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.573393106460571</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.05007004737854</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.631908178329468</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.493402719497681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.940196752548218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.695001363754272</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.726518630981445</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.438568830490112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.805329322814941</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.612475633621216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.60431981086731</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.754897832870483</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.540847301483154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>458</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.972177505493164</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.186535835266113</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1206</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.617454767227173</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.555457830429077</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.27518367767334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.600857973098755</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.632603168487549</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>786</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.914129257202148</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>786</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10.46299648284912</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>786</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.6709885597229</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.451116800308228</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.593595504760742</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.665162801742554</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.84423565864563</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.307151317596436</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.674225330352783</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>458</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5.192389488220215</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>754</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.552643775939941</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>754</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.562192440032959</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>754</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.985113620758057</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.396408677101135</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.157365739345551</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>458</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.62282395362854</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>458</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.080795049667358</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.775697469711304</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.872011661529541</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>786</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.074822902679443</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10.49932384490967</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>458</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.422507286071777</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.126116871833801</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.672761857509613</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.89374566078186</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.76795220375061</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.596805572509766</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.891601800918579</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.012696027755737</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>458</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.646229267120361</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.750662803649902</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.886943101882935</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>458</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1243</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5.382099151611328</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.934906780719757</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.521694183349609</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.684910774230957</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.626513242721558</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.920767307281494</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +5758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3697,68 +5785,367 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B2" t="n">
-        <v>954</v>
+        <v>1193</v>
       </c>
       <c r="C2" t="n">
-        <v>2.721415758132935</v>
+        <v>5.222881317138672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130</v>
+        <v>1114</v>
       </c>
       <c r="B3" t="n">
-        <v>955</v>
+        <v>1194</v>
       </c>
       <c r="C3" t="n">
-        <v>5.148585796356201</v>
+        <v>5.465703964233398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1114</v>
+        <v>458</v>
       </c>
       <c r="B4" t="n">
-        <v>956</v>
+        <v>1195</v>
       </c>
       <c r="C4" t="n">
-        <v>3.9110426902771</v>
+        <v>2.914629697799683</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1082</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>957</v>
+        <v>1196</v>
       </c>
       <c r="C5" t="n">
-        <v>4.529892444610596</v>
+        <v>5.562118887901306</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1082</v>
+        <v>786</v>
       </c>
       <c r="B6" t="n">
-        <v>958</v>
+        <v>1197</v>
       </c>
       <c r="C6" t="n">
-        <v>4.582522869110107</v>
+        <v>2.680222272872925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>426</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.541965007781982</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>426</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.609535455703735</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>426</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.856347560882568</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>426</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.747162580490112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>426</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.723840713500977</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>426</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.91195011138916</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>426</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.705867290496826</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>426</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.641938924789429</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>426</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1206</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.717629909515381</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>426</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.551836729049683</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>786</v>
       </c>
-      <c r="B7" t="n">
-        <v>959</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.346139430999756</v>
+      <c r="B17" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.891403198242188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>426</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.703731775283813</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>426</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.688191175460815</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>426</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.737291097640991</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>130</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.08833122253418</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>786</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.508159637451172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>754</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.591737270355225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>130</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.738643646240234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>786</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.1056079864502</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>786</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C26" t="n">
+        <v>18.10317420959473</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.94266510009766</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>786</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16.27218818664551</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>130</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17.27469062805176</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>786</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16.79923820495605</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.53117561340332</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>786</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.45169734954834</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.597640037536621</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>786</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.371079921722412</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +6159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3799,127 +6186,123 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="B2" t="n">
-        <v>963</v>
+        <v>1199</v>
       </c>
       <c r="C2" t="n">
-        <v>5.167057991027832</v>
+        <v>6.029179573059082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B3" t="n">
-        <v>964</v>
+        <v>1200</v>
       </c>
       <c r="C3" t="n">
-        <v>4.681761741638184</v>
+        <v>4.985082626342773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="B4" t="n">
-        <v>965</v>
+        <v>1201</v>
       </c>
       <c r="C4" t="n">
-        <v>4.242242813110352</v>
+        <v>4.638833522796631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1082</v>
+        <v>786</v>
       </c>
       <c r="B5" t="n">
-        <v>966</v>
+        <v>1202</v>
       </c>
       <c r="C5" t="n">
-        <v>4.299968719482422</v>
+        <v>2.716343402862549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B6" t="n">
-        <v>967</v>
+        <v>1203</v>
       </c>
       <c r="C6" t="n">
-        <v>4.734410285949707</v>
+        <v>14.45487499237061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B7" t="n">
-        <v>968</v>
+        <v>1204</v>
       </c>
       <c r="C7" t="n">
-        <v>2.737566471099854</v>
+        <v>14.91539669036865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>426</v>
+        <v>786</v>
       </c>
       <c r="B8" t="n">
-        <v>969</v>
+        <v>1205</v>
       </c>
       <c r="C8" t="n">
-        <v>4.107287883758545</v>
+        <v>12.43803787231445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>426</v>
+        <v>786</v>
       </c>
       <c r="B9" t="n">
-        <v>970</v>
+        <v>1206</v>
       </c>
       <c r="C9" t="n">
-        <v>2.564935445785522</v>
+        <v>12.86159992218018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1114</v>
+        <v>786</v>
       </c>
       <c r="B10" t="n">
-        <v>971</v>
+        <v>1207</v>
       </c>
       <c r="C10" t="n">
-        <v>2.946423530578613</v>
+        <v>12.91164970397949</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A11" t="n">
+        <v>786</v>
       </c>
       <c r="B11" t="n">
-        <v>972</v>
+        <v>1208</v>
       </c>
       <c r="C11" t="n">
-        <v>5.690594077110291</v>
+        <v>17.78888320922852</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A12" t="n">
+        <v>786</v>
       </c>
       <c r="B12" t="n">
-        <v>973</v>
+        <v>1209</v>
       </c>
       <c r="C12" t="n">
-        <v>3.989244222640991</v>
+        <v>18.66263389587402</v>
       </c>
     </row>
     <row r="13">
@@ -3927,10 +6310,10 @@
         <v>786</v>
       </c>
       <c r="B13" t="n">
-        <v>974</v>
+        <v>1210</v>
       </c>
       <c r="C13" t="n">
-        <v>4.347613334655762</v>
+        <v>16.80584335327148</v>
       </c>
     </row>
     <row r="14">
@@ -3938,45 +6321,43 @@
         <v>786</v>
       </c>
       <c r="B14" t="n">
-        <v>975</v>
+        <v>1211</v>
       </c>
       <c r="C14" t="n">
-        <v>4.649274349212646</v>
+        <v>19.3615779876709</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A15" t="n">
+        <v>786</v>
       </c>
       <c r="B15" t="n">
-        <v>976</v>
+        <v>1212</v>
       </c>
       <c r="C15" t="n">
-        <v>4.93914270401001</v>
+        <v>17.23868370056152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98</v>
+        <v>786</v>
       </c>
       <c r="B16" t="n">
-        <v>977</v>
+        <v>1213</v>
       </c>
       <c r="C16" t="n">
-        <v>2.644486427307129</v>
+        <v>18.55517196655273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98</v>
+        <v>786</v>
       </c>
       <c r="B17" t="n">
-        <v>978</v>
+        <v>1214</v>
       </c>
       <c r="C17" t="n">
-        <v>2.629321813583374</v>
+        <v>16.7444896697998</v>
       </c>
     </row>
     <row r="18">
@@ -3984,32 +6365,317 @@
         <v>786</v>
       </c>
       <c r="B18" t="n">
-        <v>979</v>
+        <v>1215</v>
       </c>
       <c r="C18" t="n">
-        <v>3.208850145339966</v>
+        <v>15.68470478057861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B19" t="n">
-        <v>980</v>
+        <v>1216</v>
       </c>
       <c r="C19" t="n">
-        <v>3.489448308944702</v>
+        <v>14.44836139678955</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1114</v>
+        <v>786</v>
       </c>
       <c r="B20" t="n">
-        <v>981</v>
+        <v>1217</v>
       </c>
       <c r="C20" t="n">
-        <v>2.960061311721802</v>
+        <v>12.45708084106445</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>130</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.058248519897461</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>130</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.686076641082764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>residue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>786</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.987396001815796</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>754</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.809607267379761</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>786</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.473804473876953</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.611276626586914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.235934257507324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.094066143035889</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.066218197345734</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.873410761356354</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.916653573513031</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.167808532714844</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>754</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.576995611190796</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>754</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.721221208572388</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.364397883415222</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.295147478580475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>786</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.507475852966309</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>754</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.689696311950684</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>754</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.599485158920288</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.028292179107666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.85370409488678</v>
       </c>
     </row>
     <row r="21">
@@ -4019,197 +6685,133 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>982</v>
+        <v>1237</v>
       </c>
       <c r="C21" t="n">
-        <v>4.18229067325592</v>
+        <v>4.056111574172974</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1114</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>983</v>
+        <v>1238</v>
       </c>
       <c r="C22" t="n">
-        <v>5.484349727630615</v>
+        <v>3.916036009788513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B23" t="n">
-        <v>984</v>
+        <v>1239</v>
       </c>
       <c r="C23" t="n">
-        <v>5.31838321685791</v>
+        <v>4.010962009429932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1114</v>
+        <v>130</v>
       </c>
       <c r="B24" t="n">
-        <v>985</v>
+        <v>1240</v>
       </c>
       <c r="C24" t="n">
-        <v>6.064958095550537</v>
+        <v>3.830568313598633</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B25" t="n">
-        <v>986</v>
+        <v>1241</v>
       </c>
       <c r="C25" t="n">
-        <v>3.497052431106567</v>
+        <v>2.626747131347656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>754</v>
+        <v>130</v>
       </c>
       <c r="B26" t="n">
-        <v>987</v>
+        <v>1242</v>
       </c>
       <c r="C26" t="n">
-        <v>2.678432703018188</v>
+        <v>2.551943063735962</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>786</v>
+        <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>988</v>
+        <v>1243</v>
       </c>
       <c r="C27" t="n">
-        <v>5.036776065826416</v>
+        <v>4.776642322540283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="B28" t="n">
-        <v>989</v>
+        <v>1244</v>
       </c>
       <c r="C28" t="n">
-        <v>3.971769094467163</v>
+        <v>4.667032241821289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1114</v>
+        <v>426</v>
       </c>
       <c r="B29" t="n">
-        <v>990</v>
+        <v>1245</v>
       </c>
       <c r="C29" t="n">
-        <v>3.398883581161499</v>
+        <v>2.588085651397705</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1114</v>
+        <v>426</v>
       </c>
       <c r="B30" t="n">
-        <v>991</v>
+        <v>1246</v>
       </c>
       <c r="C30" t="n">
-        <v>3.505827188491821</v>
+        <v>2.663549900054932</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B31" t="n">
-        <v>992</v>
+        <v>1247</v>
       </c>
       <c r="C31" t="n">
-        <v>2.80041241645813</v>
+        <v>2.774203538894653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B32" t="n">
-        <v>993</v>
+        <v>1248</v>
       </c>
       <c r="C32" t="n">
-        <v>3.828397035598755</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>130</v>
-      </c>
-      <c r="B33" t="n">
-        <v>994</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.571642637252808</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>130</v>
-      </c>
-      <c r="B34" t="n">
-        <v>995</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5.032536029815674</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B35" t="n">
-        <v>996</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5.245376586914062</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>130</v>
-      </c>
-      <c r="B36" t="n">
-        <v>997</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4.703291416168213</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>786</v>
-      </c>
-      <c r="B37" t="n">
-        <v>998</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.096027851104736</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B38" t="n">
-        <v>999</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.941276550292969</v>
+        <v>2.589515924453735</v>
       </c>
     </row>
   </sheetData>

--- a/results_G2/min_results_per_frame.xlsx
+++ b/results_G2/min_results_per_frame.xlsx
@@ -7,24 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2400" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2399" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2398" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2397" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2276" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2520" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2223" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2391" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2333" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2247" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2372" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2231" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2381" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2343" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2334" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2230" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2515" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2280" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2400_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2399_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2398_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2397_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2276_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2520_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2223_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2391_1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2333_1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2247_1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2372_1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2231_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2381_1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2343_1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2334_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2230_1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2515_1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2280_1" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
